--- a/DataConfig/Datas/material.xlsx
+++ b/DataConfig/Datas/material.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22200" windowHeight="13140"/>
+    <workbookView windowWidth="30075" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="食材" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -25,27 +25,15 @@
     <t>name</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>res_path</t>
-  </si>
-  <si>
     <t>tag</t>
   </si>
   <si>
     <t>opposite_tag</t>
   </si>
   <si>
-    <t>get_method</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -61,9 +49,6 @@
     <t>(list#sep=,),food.flavorTag</t>
   </si>
   <si>
-    <t>string?</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
@@ -73,34 +58,19 @@
     <t>名字</t>
   </si>
   <si>
-    <t>售价</t>
-  </si>
-  <si>
     <t>种类</t>
   </si>
   <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>资源路径</t>
-  </si>
-  <si>
     <t>标签</t>
   </si>
   <si>
     <t>反标签</t>
   </si>
   <si>
-    <t>获取方式</t>
-  </si>
-  <si>
     <t>牛肉</t>
   </si>
   <si>
     <t>肉类</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/Character/DeliveryMan.png</t>
   </si>
   <si>
     <t>肉</t>
@@ -167,7 +137,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,8 +154,9 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="微软雅黑 Light"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -195,42 +166,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑 Light"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑 Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF34495E"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -707,190 +658,187 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1212,27 +1160,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="27.25" customWidth="1"/>
-    <col min="7" max="7" width="21.125" customWidth="1"/>
-    <col min="8" max="8" width="29.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:15">
+    <row r="1" ht="16.5" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1241,279 +1186,183 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:11">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="14"/>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
     </row>
-    <row r="2" ht="16.5" spans="1:15">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="3" ht="16.5" spans="1:11">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="4"/>
     </row>
-    <row r="3" ht="16.5" spans="1:15">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="4" ht="16.5" spans="1:6">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="5" ht="16.5" spans="1:6">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="D5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="E5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="F5" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:6">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="12"/>
+      <c r="F6" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" ht="16.5" spans="1:10">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="7">
+    <row r="7" ht="16.5" spans="1:6">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:6">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="7"/>
+      <c r="F8" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" ht="16.5" spans="1:10">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7">
-        <v>1002</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="7">
-        <v>40</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="7"/>
+    <row r="9" ht="16.5" spans="1:6">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" ht="16.5" spans="1:10">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7">
-        <v>1003</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="7">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:10">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7">
-        <v>1004</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="7">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:10">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7">
-        <v>1005</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="7">
-        <v>3</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:10">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7">
-        <v>1006</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="7">
-        <v>15</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="13" spans="8:8">
-      <c r="H13" s="11"/>
+    <row r="13" spans="5:5">
+      <c r="E13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DataConfig/Datas/material.xlsx
+++ b/DataConfig/Datas/material.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30075" windowHeight="13140"/>
+    <workbookView windowWidth="25605" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="食材" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -125,12 +125,18 @@
   </si>
   <si>
     <t>减肥</t>
+  </si>
+  <si>
+    <t>面粉</t>
+  </si>
+  <si>
+    <t>蜂蜜</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -184,48 +190,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,6 +247,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -309,6 +301,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,18 +341,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -359,19 +443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,115 +467,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,21 +565,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -602,6 +593,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,148 +664,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -808,20 +814,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -829,67 +835,67 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1163,7 +1169,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1355,6 +1361,32 @@
       <c r="F9" s="11" t="s">
         <v>36</v>
       </c>
+    </row>
+    <row r="10" ht="16.5" spans="2:6">
+      <c r="B10" s="10">
+        <v>1008</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:6">
+      <c r="B11" s="10">
+        <v>1009</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" s="12"/>

--- a/DataConfig/Datas/material.xlsx
+++ b/DataConfig/Datas/material.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FoodStall\ProjectX\DataConfig\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E79CCA-CA8F-498C-9AFA-C2D9A3426D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25605" windowHeight="10455"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="食材" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -121,29 +127,143 @@
     <t>鸡胸肉</t>
   </si>
   <si>
+    <t>减肥</t>
+  </si>
+  <si>
+    <t>面粉</t>
+  </si>
+  <si>
+    <t>蜂蜜</t>
+  </si>
+  <si>
+    <t>洋葱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白萝卜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡萝卜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>草鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>章鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红柿</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄瓜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小青菜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白菜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸菜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>面条</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>扇贝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱腹</t>
+  </si>
+  <si>
     <t>肉,香酥</t>
-  </si>
-  <si>
-    <t>减肥</t>
-  </si>
-  <si>
-    <t>面粉</t>
-  </si>
-  <si>
-    <t>蜂蜜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>素,甜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>素</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>素,辣</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水产,鲜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>素,酸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱腹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小巧</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,142 +305,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF34495E"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,182 +351,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -563,346 +401,77 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1160,26 +729,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="29.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:11">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1201,10 +770,10 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:11">
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1226,10 +795,10 @@
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:11">
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1254,7 +823,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10">
         <v>1001</v>
@@ -1272,7 +841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10">
         <v>1002</v>
@@ -1283,14 +852,14 @@
       <c r="D5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>23</v>
+      <c r="E5" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:6">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10">
         <v>1003</v>
@@ -1308,7 +877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10">
         <v>1004</v>
@@ -1326,7 +895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:6">
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10">
         <v>1005</v>
@@ -1344,7 +913,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:6">
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10">
         <v>1006</v>
@@ -1355,49 +924,330 @@
       <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="2:6">
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <v>1008</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" ht="16.5" spans="2:6">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>1009</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="13" spans="5:5">
-      <c r="E13" s="12"/>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="16">
+        <v>1010</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="16">
+        <v>1011</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="16">
+        <v>1012</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="16">
+        <v>1013</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="16">
+        <v>1014</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="16">
+        <v>1015</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="16">
+        <v>1016</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="16">
+        <v>1017</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="16">
+        <v>1018</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="16">
+        <v>1019</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="16">
+        <v>1020</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="16">
+        <v>1021</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="16">
+        <v>1022</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="16">
+        <v>1023</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="16">
+        <v>1024</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="16">
+        <v>1025</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="16">
+        <v>1026</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="16">
+        <v>1027</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="16">
+        <v>1028</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B31" s="16">
+        <v>1029</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DataConfig/Datas/material.xlsx
+++ b/DataConfig/Datas/material.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25605" windowHeight="10455"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="食材" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>蜂蜜</t>
+  </si>
+  <si>
+    <t>甜</t>
+  </si>
+  <si>
+    <t>芝麻</t>
+  </si>
+  <si>
+    <t>桂花糖</t>
+  </si>
+  <si>
+    <t>甜酒</t>
   </si>
 </sst>
 </file>
@@ -186,7 +198,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF34495E"/>
-      <name val="Arial"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1166,10 +1178,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1372,7 +1384,6 @@
       <c r="D10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="1"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" ht="16.5" spans="2:6">
@@ -1385,11 +1396,49 @@
       <c r="D11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="13" spans="5:5">
-      <c r="E13" s="12"/>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>1010</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13">
+        <v>1011</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14">
+        <v>1012</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/DataConfig/Datas/material.xlsx
+++ b/DataConfig/Datas/material.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FoodStall\ProjectX\DataConfig\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993E9853-3ED3-464A-A10D-66B07D4762DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="2070" yWindow="930" windowWidth="18885" windowHeight="16125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="食材" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -136,26 +142,138 @@
     <t>甜</t>
   </si>
   <si>
+    <t>洋葱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>素</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>素,甜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>白萝卜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>素,辣</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡萝卜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>草鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水产,鲜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>章鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红柿</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>素,酸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄瓜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小青菜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>白菜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸菜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱腹</t>
+  </si>
+  <si>
+    <t>面条</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄子</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小巧</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>扇贝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>芝麻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>桂花糖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>甜酒</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱腹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,12 +285,14 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="微软雅黑 Light"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -180,12 +300,14 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="微软雅黑 Light"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -193,146 +315,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑 Light"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF34495E"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,182 +353,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -575,346 +403,73 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1172,26 +727,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="29.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:11">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1213,10 +768,10 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:11">
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1238,10 +793,10 @@
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:11">
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1266,7 +821,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10">
         <v>1001</v>
@@ -1284,7 +839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10">
         <v>1002</v>
@@ -1302,7 +857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:6">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10">
         <v>1003</v>
@@ -1320,7 +875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10">
         <v>1004</v>
@@ -1338,7 +893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:6">
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10">
         <v>1005</v>
@@ -1356,7 +911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:6">
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10">
         <v>1006</v>
@@ -1374,7 +929,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="2:6">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <v>1008</v>
       </c>
@@ -1384,9 +939,12 @@
       <c r="D10" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="E10" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" ht="16.5" spans="2:6">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>1009</v>
       </c>
@@ -1401,42 +959,325 @@
       </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="10">
         <v>1010</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="10">
+        <v>1011</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="10">
+        <v>1012</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="10">
+        <v>1013</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="10">
+        <v>1014</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="10">
+        <v>1015</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="10">
+        <v>1016</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="10">
+        <v>1017</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="10">
+        <v>1018</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="10">
+        <v>1019</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="10">
+        <v>1020</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="10">
+        <v>1021</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="10">
+        <v>1022</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13">
-        <v>1011</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="10">
+        <v>1023</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E25" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="10">
+        <v>1024</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="10">
+        <v>1025</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="10">
+        <v>1026</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="10">
+        <v>1027</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="10">
+        <v>1028</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B31" s="10">
+        <v>1029</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B32" s="10">
+        <v>1030</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B33" s="10">
+        <v>1031</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
-      <c r="B14">
-        <v>1012</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="34" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B34" s="10">
+        <v>1032</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E34" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1445,8 +1286,8 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DataConfig/Datas/material.xlsx
+++ b/DataConfig/Datas/material.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FoodStall\ProjectX\DataConfig\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993E9853-3ED3-464A-A10D-66B07D4762DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="930" windowWidth="18885" windowHeight="16125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="食材" sheetId="1" r:id="rId1"/>
@@ -19,8 +13,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>63202</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>63202:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 底层
+2 中层
+只有一个层内的食物才会发生碰撞</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -40,6 +68,9 @@
     <t>opposite_tag</t>
   </si>
   <si>
+    <t>collision_layer</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -73,6 +104,9 @@
     <t>反标签</t>
   </si>
   <si>
+    <t>碰撞层级</t>
+  </si>
+  <si>
     <t>牛肉</t>
   </si>
   <si>
@@ -136,6 +170,9 @@
     <t>面粉</t>
   </si>
   <si>
+    <t>饱腹</t>
+  </si>
+  <si>
     <t>蜂蜜</t>
   </si>
   <si>
@@ -143,137 +180,94 @@
   </si>
   <si>
     <t>洋葱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>素</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>南瓜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>素,甜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>白萝卜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>素,辣</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>蘑菇</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>胡萝卜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>草鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>水产,鲜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>章鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>西红柿</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>素,酸</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>黄瓜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>小青菜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>白菜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>酸菜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>米饭</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>饱腹</t>
   </si>
   <si>
     <t>面条</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>茄子</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>牛奶</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小巧</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>猪肉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>粉丝</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>扇贝</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>玉米</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>芝麻</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>桂花糖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>甜酒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>饱腹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,14 +279,18 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="微软雅黑 Light"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="微软雅黑 Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -300,14 +298,18 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="微软雅黑 Light"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="微软雅黑 Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -315,26 +317,164 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑 Light"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="微软雅黑 Light"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,8 +493,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -403,73 +717,354 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -727,26 +1322,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="29.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="16.5" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -765,520 +1360,619 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:11">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11">
         <v>1001</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10">
+      <c r="E4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:7">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11">
         <v>1002</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:7">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:7">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:7">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="2:7">
+      <c r="B10" s="11">
+        <v>1008</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="2:7">
+      <c r="B11" s="11">
+        <v>1009</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="2:7">
+      <c r="B12" s="11">
+        <v>1010</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="2:7">
+      <c r="B13" s="11">
+        <v>1011</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="2:7">
+      <c r="B14" s="11">
+        <v>1012</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="2:7">
+      <c r="B15" s="11">
+        <v>1013</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="2:7">
+      <c r="B16" s="11">
+        <v>1014</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="2:7">
+      <c r="B17" s="11">
+        <v>1015</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="2:7">
+      <c r="B18" s="11">
+        <v>1016</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="2:7">
+      <c r="B19" s="11">
+        <v>1017</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="2:7">
+      <c r="B20" s="11">
+        <v>1018</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="2:7">
+      <c r="B21" s="11">
+        <v>1019</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="2:7">
+      <c r="B22" s="11">
+        <v>1020</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="2:7">
+      <c r="B23" s="11">
+        <v>1021</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="2:7">
+      <c r="B24" s="11">
+        <v>1022</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="2:7">
+      <c r="B25" s="11">
+        <v>1023</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="2:7">
+      <c r="B26" s="11">
+        <v>1024</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="2:7">
+      <c r="B27" s="11">
+        <v>1025</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="2:7">
+      <c r="B28" s="11">
+        <v>1026</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="2:7">
+      <c r="B29" s="11">
+        <v>1027</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="2:7">
+      <c r="B30" s="11">
+        <v>1028</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="2:7">
+      <c r="B31" s="11">
+        <v>1029</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10">
-        <v>1003</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10">
-        <v>1004</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="2:7">
+      <c r="B32" s="11">
+        <v>1030</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10">
-        <v>1005</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10">
-        <v>1006</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="E32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="10">
-        <v>1008</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="10">
-        <v>1009</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="10">
-        <v>1010</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="10">
-        <v>1011</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="2:7">
+      <c r="B33" s="11">
+        <v>1031</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="10">
-        <v>1012</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="10">
-        <v>1013</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="10">
-        <v>1014</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="10">
-        <v>1015</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="10">
-        <v>1016</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="10">
-        <v>1017</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="10">
-        <v>1018</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="10">
-        <v>1019</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="10">
-        <v>1020</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="10">
-        <v>1021</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="10">
-        <v>1022</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="10">
-        <v>1023</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B26" s="10">
-        <v>1024</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B27" s="10">
-        <v>1025</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B28" s="10">
-        <v>1026</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B29" s="10">
-        <v>1027</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B30" s="10">
-        <v>1028</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B31" s="10">
-        <v>1029</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B32" s="10">
-        <v>1030</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="2:7">
+      <c r="B34" s="11">
+        <v>1032</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B33" s="10">
-        <v>1031</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B34" s="10">
-        <v>1032</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>28</v>
+      <c r="D34" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1286,8 +1980,9 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DataConfig/Datas/material.xlsx
+++ b/DataConfig/Datas/material.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="26595" windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="食材" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
   <si>
     <t>##var</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>减肥</t>
+  </si>
+  <si>
+    <t>羊肉</t>
   </si>
   <si>
     <t>面粉</t>
@@ -267,7 +270,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,21 +287,9 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="微软雅黑 Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="微软雅黑 Light"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -318,19 +309,6 @@
       <color theme="1"/>
       <name val="微软雅黑 Light"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑 Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -833,137 +811,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -972,41 +950,40 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1328,10 +1305,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1365,8 +1342,8 @@
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" ht="16.5" spans="1:11">
       <c r="A2" s="6" t="s">
@@ -1391,9 +1368,9 @@
         <v>8</v>
       </c>
       <c r="H2" s="9"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" ht="16.5" spans="1:11">
       <c r="A3" s="2" t="s">
@@ -1439,7 +1416,7 @@
       <c r="F4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1460,7 +1437,7 @@
       <c r="F5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1481,7 +1458,7 @@
       <c r="F6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1502,7 +1479,7 @@
       <c r="F7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1523,7 +1500,7 @@
       <c r="F8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1544,66 +1521,66 @@
       <c r="F9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="2:7">
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:7">
+      <c r="A10" s="11"/>
       <c r="B10" s="11">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="13">
-        <v>1</v>
-      </c>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" ht="16.5" spans="2:7">
       <c r="B11" s="11">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>42</v>
+      <c r="E11" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11">
+      <c r="G11" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:7">
       <c r="B12" s="11">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="F12" s="12"/>
       <c r="G12">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:7">
       <c r="B13" s="11">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>44</v>
@@ -1611,8 +1588,8 @@
       <c r="D13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>45</v>
+      <c r="E13" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1620,16 +1597,16 @@
     </row>
     <row r="14" ht="16.5" spans="2:7">
       <c r="B14" s="11">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1637,16 +1614,16 @@
     </row>
     <row r="15" ht="16.5" spans="2:7">
       <c r="B15" s="11">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>22</v>
+      <c r="E15" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1654,7 +1631,7 @@
     </row>
     <row r="16" ht="16.5" spans="2:7">
       <c r="B16" s="11">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>49</v>
@@ -1662,7 +1639,7 @@
       <c r="D16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G16">
@@ -1671,16 +1648,16 @@
     </row>
     <row r="17" ht="16.5" spans="2:7">
       <c r="B17" s="11">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1688,7 +1665,7 @@
     </row>
     <row r="18" ht="16.5" spans="2:7">
       <c r="B18" s="11">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>51</v>
@@ -1696,7 +1673,7 @@
       <c r="D18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G18">
@@ -1705,16 +1682,16 @@
     </row>
     <row r="19" ht="16.5" spans="2:7">
       <c r="B19" s="11">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>53</v>
+        <v>24</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1722,16 +1699,16 @@
     </row>
     <row r="20" ht="16.5" spans="2:7">
       <c r="B20" s="11">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>22</v>
+      <c r="E20" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1739,7 +1716,7 @@
     </row>
     <row r="21" ht="16.5" spans="2:7">
       <c r="B21" s="11">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>55</v>
@@ -1747,7 +1724,7 @@
       <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>22</v>
       </c>
       <c r="G21">
@@ -1756,7 +1733,7 @@
     </row>
     <row r="22" ht="16.5" spans="2:7">
       <c r="B22" s="11">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>56</v>
@@ -1764,7 +1741,7 @@
       <c r="D22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>22</v>
       </c>
       <c r="G22">
@@ -1773,7 +1750,7 @@
     </row>
     <row r="23" ht="16.5" spans="2:7">
       <c r="B23" s="11">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>57</v>
@@ -1781,8 +1758,8 @@
       <c r="D23" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>53</v>
+      <c r="E23" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1790,16 +1767,16 @@
     </row>
     <row r="24" ht="16.5" spans="2:7">
       <c r="B24" s="11">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1807,7 +1784,7 @@
     </row>
     <row r="25" ht="16.5" spans="2:7">
       <c r="B25" s="11">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>59</v>
@@ -1816,7 +1793,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1824,16 +1801,16 @@
     </row>
     <row r="26" ht="16.5" spans="2:7">
       <c r="B26" s="11">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1841,16 +1818,16 @@
     </row>
     <row r="27" ht="16.5" spans="2:7">
       <c r="B27" s="11">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1858,16 +1835,16 @@
     </row>
     <row r="28" ht="16.5" spans="2:7">
       <c r="B28" s="11">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1875,16 +1852,16 @@
     </row>
     <row r="29" ht="16.5" spans="2:7">
       <c r="B29" s="11">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>63</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1892,16 +1869,16 @@
     </row>
     <row r="30" ht="16.5" spans="2:7">
       <c r="B30" s="11">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1909,16 +1886,16 @@
     </row>
     <row r="31" ht="16.5" spans="2:7">
       <c r="B31" s="11">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>65</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1926,16 +1903,16 @@
     </row>
     <row r="32" ht="16.5" spans="2:7">
       <c r="B32" s="11">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1943,7 +1920,7 @@
     </row>
     <row r="33" ht="16.5" spans="2:7">
       <c r="B33" s="11">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>67</v>
@@ -1951,8 +1928,8 @@
       <c r="D33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>42</v>
+      <c r="E33" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1960,7 +1937,7 @@
     </row>
     <row r="34" ht="16.5" spans="2:7">
       <c r="B34" s="11">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>68</v>
@@ -1969,9 +1946,26 @@
         <v>30</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="2:7">
+      <c r="B35" s="11">
+        <v>1032</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35">
         <v>1</v>
       </c>
     </row>

--- a/DataConfig/Datas/material.xlsx
+++ b/DataConfig/Datas/material.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26595" windowHeight="17055"/>
+    <workbookView windowWidth="14745" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="食材" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -107,157 +107,121 @@
     <t>碰撞层级</t>
   </si>
   <si>
-    <t>牛肉</t>
+    <t>鸡蛋</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>肉</t>
+  </si>
+  <si>
+    <t>素</t>
+  </si>
+  <si>
+    <t>面粉</t>
+  </si>
+  <si>
+    <t>水产,鲜</t>
+  </si>
+  <si>
+    <t>豆腐</t>
+  </si>
+  <si>
+    <t>实惠</t>
+  </si>
+  <si>
+    <t>昂贵</t>
+  </si>
+  <si>
+    <t>米饭</t>
+  </si>
+  <si>
+    <t>辣</t>
+  </si>
+  <si>
+    <t>清凉</t>
+  </si>
+  <si>
+    <t>奶酪</t>
+  </si>
+  <si>
+    <t>小巧</t>
+  </si>
+  <si>
+    <t>土豆</t>
+  </si>
+  <si>
+    <t>蔬菜</t>
+  </si>
+  <si>
+    <t>肉,香酥</t>
+  </si>
+  <si>
+    <t>减肥</t>
+  </si>
+  <si>
+    <t>蘑菇</t>
+  </si>
+  <si>
+    <t>胡萝卜</t>
+  </si>
+  <si>
+    <t>饱腹</t>
+  </si>
+  <si>
+    <t>西红柿</t>
+  </si>
+  <si>
+    <t>甜</t>
+  </si>
+  <si>
+    <t>莴笋</t>
+  </si>
+  <si>
+    <t>小青菜</t>
+  </si>
+  <si>
+    <t>素,甜</t>
+  </si>
+  <si>
+    <t>白菜</t>
+  </si>
+  <si>
+    <t>素,辣</t>
+  </si>
+  <si>
+    <t>西兰花</t>
+  </si>
+  <si>
+    <t>香菇</t>
+  </si>
+  <si>
+    <t>茄子</t>
+  </si>
+  <si>
+    <t>海鲜</t>
+  </si>
+  <si>
+    <t>毛豆</t>
+  </si>
+  <si>
+    <t>青椒</t>
+  </si>
+  <si>
+    <t>素,酸</t>
+  </si>
+  <si>
+    <t>鸡腿</t>
   </si>
   <si>
     <t>肉类</t>
   </si>
   <si>
-    <t>肉</t>
-  </si>
-  <si>
-    <t>素</t>
-  </si>
-  <si>
-    <t>虾</t>
-  </si>
-  <si>
-    <t>海鲜</t>
-  </si>
-  <si>
-    <t>水产,鲜</t>
-  </si>
-  <si>
-    <t>鸡蛋</t>
-  </si>
-  <si>
-    <t>实惠</t>
-  </si>
-  <si>
-    <t>昂贵</t>
-  </si>
-  <si>
-    <t>辣椒</t>
-  </si>
-  <si>
-    <t>其它</t>
-  </si>
-  <si>
-    <t>辣</t>
-  </si>
-  <si>
-    <t>清凉</t>
-  </si>
-  <si>
-    <t>土豆</t>
-  </si>
-  <si>
-    <t>蔬菜</t>
-  </si>
-  <si>
-    <t>小巧</t>
-  </si>
-  <si>
-    <t>鸡胸肉</t>
-  </si>
-  <si>
-    <t>肉,香酥</t>
-  </si>
-  <si>
-    <t>减肥</t>
-  </si>
-  <si>
     <t>羊肉</t>
   </si>
   <si>
-    <t>面粉</t>
-  </si>
-  <si>
-    <t>饱腹</t>
-  </si>
-  <si>
-    <t>蜂蜜</t>
-  </si>
-  <si>
-    <t>甜</t>
-  </si>
-  <si>
-    <t>洋葱</t>
-  </si>
-  <si>
-    <t>南瓜</t>
-  </si>
-  <si>
-    <t>素,甜</t>
-  </si>
-  <si>
-    <t>白萝卜</t>
-  </si>
-  <si>
-    <t>素,辣</t>
-  </si>
-  <si>
-    <t>蘑菇</t>
-  </si>
-  <si>
-    <t>胡萝卜</t>
-  </si>
-  <si>
-    <t>草鱼</t>
-  </si>
-  <si>
-    <t>章鱼</t>
-  </si>
-  <si>
-    <t>西红柿</t>
-  </si>
-  <si>
-    <t>素,酸</t>
-  </si>
-  <si>
-    <t>黄瓜</t>
-  </si>
-  <si>
-    <t>小青菜</t>
-  </si>
-  <si>
-    <t>白菜</t>
-  </si>
-  <si>
-    <t>酸菜</t>
-  </si>
-  <si>
-    <t>米饭</t>
-  </si>
-  <si>
-    <t>面条</t>
-  </si>
-  <si>
-    <t>茄子</t>
-  </si>
-  <si>
-    <t>牛奶</t>
-  </si>
-  <si>
-    <t>猪肉</t>
-  </si>
-  <si>
-    <t>粉丝</t>
-  </si>
-  <si>
-    <t>扇贝</t>
-  </si>
-  <si>
-    <t>玉米</t>
-  </si>
-  <si>
-    <t>芝麻</t>
-  </si>
-  <si>
-    <t>桂花糖</t>
-  </si>
-  <si>
-    <t>甜酒</t>
+    <t>五花肉</t>
   </si>
 </sst>
 </file>
@@ -941,7 +905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -973,6 +937,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1305,10 +1270,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1342,8 +1307,8 @@
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" ht="16.5" spans="1:11">
       <c r="A2" s="6" t="s">
@@ -1368,9 +1333,9 @@
         <v>8</v>
       </c>
       <c r="H2" s="9"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" ht="16.5" spans="1:11">
       <c r="A3" s="2" t="s">
@@ -1429,10 +1394,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>22</v>
@@ -1444,19 +1409,19 @@
     <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="11"/>
       <c r="B6" s="11">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="G6" s="11">
         <v>1</v>
@@ -1465,19 +1430,19 @@
     <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="11"/>
       <c r="B7" s="11">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
@@ -1486,19 +1451,19 @@
     <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="11"/>
       <c r="B8" s="11">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G8" s="11">
         <v>2</v>
@@ -1507,19 +1472,19 @@
     <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
-        <v>1006</v>
+        <v>2002</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
@@ -1528,13 +1493,13 @@
     <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
-        <v>1007</v>
+        <v>2006</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>21</v>
@@ -1544,16 +1509,16 @@
     </row>
     <row r="11" ht="16.5" spans="2:7">
       <c r="B11" s="11">
-        <v>1008</v>
+        <v>2007</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="11">
@@ -1562,16 +1527,16 @@
     </row>
     <row r="12" ht="16.5" spans="2:7">
       <c r="B12" s="11">
-        <v>1009</v>
+        <v>2008</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12">
@@ -1580,10 +1545,10 @@
     </row>
     <row r="13" ht="16.5" spans="2:7">
       <c r="B13" s="11">
-        <v>1010</v>
+        <v>2009</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>34</v>
@@ -1596,45 +1561,45 @@
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:7">
-      <c r="B14" s="11">
-        <v>1011</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>45</v>
+      <c r="B14" s="15">
+        <v>2010</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:7">
-      <c r="B15" s="11">
-        <v>1012</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>47</v>
+      <c r="B15" s="15">
+        <v>2011</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:7">
-      <c r="B16" s="11">
-        <v>1013</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>49</v>
+      <c r="B16" s="15">
+        <v>2012</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>34</v>
@@ -1647,11 +1612,11 @@
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:7">
-      <c r="B17" s="11">
-        <v>1014</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>50</v>
+      <c r="B17" s="15">
+        <v>2013</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>34</v>
@@ -1664,65 +1629,65 @@
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:7">
-      <c r="B18" s="11">
-        <v>1015</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="15">
+        <v>2014</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="2:7">
+      <c r="B19" s="15">
+        <v>2015</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="2:7">
-      <c r="B19" s="11">
-        <v>1016</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="2:7">
+      <c r="B20" s="15">
+        <v>2016</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="2:7">
-      <c r="B20" s="11">
-        <v>1017</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="2:7">
+      <c r="B21" s="15">
+        <v>3003</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" spans="2:7">
-      <c r="B21" s="11">
-        <v>1018</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>22</v>
@@ -1732,14 +1697,14 @@
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:7">
-      <c r="B22" s="11">
-        <v>1019</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="15">
+        <v>3004</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>22</v>
@@ -1749,223 +1714,19 @@
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:7">
-      <c r="B23" s="11">
-        <v>1020</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="15">
+        <v>3005</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5" spans="2:7">
-      <c r="B24" s="11">
-        <v>1021</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" spans="2:7">
-      <c r="B25" s="11">
-        <v>1022</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" spans="2:7">
-      <c r="B26" s="11">
-        <v>1023</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" ht="16.5" spans="2:7">
-      <c r="B27" s="11">
-        <v>1024</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" ht="16.5" spans="2:7">
-      <c r="B28" s="11">
-        <v>1025</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5" spans="2:7">
-      <c r="B29" s="11">
-        <v>1026</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" ht="16.5" spans="2:7">
-      <c r="B30" s="11">
-        <v>1027</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" ht="16.5" spans="2:7">
-      <c r="B31" s="11">
-        <v>1028</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" ht="16.5" spans="2:7">
-      <c r="B32" s="11">
-        <v>1029</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5" spans="2:7">
-      <c r="B33" s="11">
-        <v>1030</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" ht="16.5" spans="2:7">
-      <c r="B34" s="11">
-        <v>1031</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" spans="2:7">
-      <c r="B35" s="11">
-        <v>1032</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35">
         <v>1</v>
       </c>
     </row>

--- a/DataConfig/Datas/material.xlsx
+++ b/DataConfig/Datas/material.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14745" windowHeight="12840"/>
+    <workbookView windowWidth="20205" windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="食材" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>茄子</t>
-  </si>
-  <si>
-    <t>海鲜</t>
   </si>
   <si>
     <t>毛豆</t>
@@ -1273,7 +1270,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1636,7 +1633,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>24</v>
@@ -1650,10 +1647,10 @@
         <v>2015</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>24</v>
@@ -1667,13 +1664,13 @@
         <v>2016</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1684,10 +1681,10 @@
         <v>3003</v>
       </c>
       <c r="C21" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>22</v>
@@ -1701,10 +1698,10 @@
         <v>3004</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>22</v>
@@ -1718,10 +1715,10 @@
         <v>3005</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>22</v>
